--- a/name_filter_excel/output.xlsx
+++ b/name_filter_excel/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
+          <t>CODE</t>
         </is>
       </c>
     </row>
@@ -464,11 +459,10 @@
       <c r="B2" t="n">
         <v>123</v>
       </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -480,11 +474,10 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
       </c>
     </row>
   </sheetData>
